--- a/AUC_ROC_results/auc/AUC_AR_ONLY_performance.xlsx
+++ b/AUC_ROC_results/auc/AUC_AR_ONLY_performance.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u244834_bcm_edu/Documents/BCM/Projects/Autosomal Dominant Predictor of IRDs/manuscript/GitHub/AUC_ROC_results/auc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_192922E3F613C8264F2C4CB06503502F4B62EA95" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92824F9B-7375-4162-AC8D-87518163AD85}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="16770" yWindow="690" windowWidth="19275" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -145,8 +151,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,13 +215,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -253,7 +267,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -287,6 +301,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -321,9 +336,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -496,14 +512,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,106 +536,106 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.9845897275779791</v>
+        <v>0.98458972757797913</v>
       </c>
       <c r="C2">
-        <v>95.75688073394495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>95.756880733944953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.982993982904977</v>
+        <v>0.98299398290497697</v>
       </c>
       <c r="C3">
-        <v>96.50229357798165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>96.502293577981646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.9746495122681827</v>
+        <v>0.97464951226818275</v>
       </c>
       <c r="C4">
-        <v>96.04357798165137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>96.043577981651367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.9580065833335825</v>
+        <v>0.95800658333358246</v>
       </c>
       <c r="C5">
-        <v>95.5848623853211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>95.584862385321102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.9532372541340166</v>
+        <v>0.95323725413401661</v>
       </c>
       <c r="C6">
-        <v>95.5848623853211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>95.584862385321102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.9397386504850626</v>
+        <v>0.93973865048506255</v>
       </c>
       <c r="C7">
-        <v>96.04357798165137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>96.043577981651367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.9367873790422135</v>
+        <v>0.93678737904221354</v>
       </c>
       <c r="C8">
-        <v>95.9288990825688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>95.928899082568805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.9184034369665243</v>
+        <v>0.91840343696652427</v>
       </c>
       <c r="C9">
-        <v>95.5848623853211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>95.584862385321102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.9182780144914701</v>
+        <v>0.91827801449147006</v>
       </c>
       <c r="C10">
-        <v>90.53899082568807</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>90.538990825688074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -621,43 +643,43 @@
         <v>0.9169213648688892</v>
       </c>
       <c r="C11">
-        <v>82.91284403669725</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>82.912844036697251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.9138102273660018</v>
+        <v>0.91381022736600181</v>
       </c>
       <c r="C12">
-        <v>90.88302752293578</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>90.883027522935777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.9069326807800742</v>
+        <v>0.90693268078007416</v>
       </c>
       <c r="C13">
-        <v>95.5848623853211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>95.584862385321102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.9051709612701995</v>
+        <v>0.90517096127019947</v>
       </c>
       <c r="C14">
-        <v>82.91284403669725</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>82.912844036697251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -665,21 +687,21 @@
         <v>0.9004074140800451</v>
       </c>
       <c r="C15">
-        <v>86.35321100917432</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>86.353211009174316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.8991847847563048</v>
+        <v>0.89918478475630481</v>
       </c>
       <c r="C16">
-        <v>82.51146788990825</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>82.511467889908246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -687,10 +709,10 @@
         <v>0.8955020589166931</v>
       </c>
       <c r="C17">
-        <v>58.8302752293578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>58.830275229357802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -701,246 +723,246 @@
         <v>91.62844036697247</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.8848932664440292</v>
+        <v>0.88489326644402921</v>
       </c>
       <c r="C19">
-        <v>96.50229357798165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>96.502293577981646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.8792529783277172</v>
+        <v>0.87925297832771721</v>
       </c>
       <c r="C20">
-        <v>85.26376146788991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>85.263761467889907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.8754871869823638</v>
+        <v>0.87548718698236383</v>
       </c>
       <c r="C21">
-        <v>91.34174311926606</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>91.341743119266056</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.8565636355611788</v>
+        <v>0.85656363556117876</v>
       </c>
       <c r="C22">
-        <v>96.50229357798165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>96.502293577981646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0.8526650287614199</v>
+        <v>0.85266502876141992</v>
       </c>
       <c r="C23">
-        <v>96.50229357798165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>96.502293577981646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.8525195686771249</v>
+        <v>0.85251956867712486</v>
       </c>
       <c r="C24">
-        <v>91.34174311926606</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>91.341743119266056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
-        <v>0.8496933361905503</v>
+        <v>0.84969333619055032</v>
       </c>
       <c r="C25">
-        <v>91.45642201834863</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>91.456422018348633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>0.8490005346012441</v>
+        <v>0.84900053460124414</v>
       </c>
       <c r="C26">
-        <v>95.69954128440367</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>95.699541284403665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>0.8341053234825815</v>
+        <v>0.83410532348258148</v>
       </c>
       <c r="C27">
-        <v>96.27293577981652</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>96.272935779816521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
-        <v>0.8226475669343298</v>
+        <v>0.82264756693432983</v>
       </c>
       <c r="C28">
-        <v>96.10091743119266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>96.100917431192656</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
-        <v>0.8174261533355459</v>
+        <v>0.81742615333554591</v>
       </c>
       <c r="C29">
-        <v>90.30963302752293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>90.309633027522935</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
-        <v>0.8136008001620222</v>
+        <v>0.81360080016202219</v>
       </c>
       <c r="C30">
         <v>86.86926605504587</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
-        <v>0.8057469661040593</v>
+        <v>0.80574696610405927</v>
       </c>
       <c r="C31">
-        <v>93.63532110091744</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>93.635321100917437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32">
-        <v>0.8022195301537087</v>
+        <v>0.80221953015370873</v>
       </c>
       <c r="C32">
-        <v>96.3302752293578</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>96.330275229357795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33">
-        <v>0.7966249621632531</v>
+        <v>0.79662496216325307</v>
       </c>
       <c r="C33">
-        <v>89.50688073394495</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>89.506880733944953</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34">
-        <v>0.7910457093257617</v>
+        <v>0.79104570932576168</v>
       </c>
       <c r="C34">
-        <v>96.50229357798165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>96.502293577981646</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
-        <v>0.7761876039015491</v>
+        <v>0.77618760390154906</v>
       </c>
       <c r="C35">
-        <v>96.50229357798165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>96.502293577981646</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36">
-        <v>0.7606917452517912</v>
+        <v>0.76069174525179117</v>
       </c>
       <c r="C36">
-        <v>96.50229357798165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>96.502293577981646</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
-        <v>0.7468597825607226</v>
+        <v>0.74685978256072261</v>
       </c>
       <c r="C37">
-        <v>96.50229357798165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>96.502293577981646</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38">
-        <v>0.7249724155179262</v>
+        <v>0.72497241551792624</v>
       </c>
       <c r="C38">
-        <v>96.50229357798165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>96.502293577981646</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39">
-        <v>0.6880974798817177</v>
+        <v>0.68809747988171766</v>
       </c>
       <c r="C39">
-        <v>96.50229357798165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>96.502293577981646</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
-        <v>0.3020184657885193</v>
+        <v>0.30201846578851932</v>
       </c>
       <c r="C40">
-        <v>83.65825688073394</v>
+        <v>83.658256880733944</v>
       </c>
     </row>
   </sheetData>
